--- a/wyliczenia.xlsx
+++ b/wyliczenia.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="9495" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="9495" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sprawozdanie" sheetId="1" r:id="rId1"/>
     <sheet name="Wyliczenia skalowania liniowego" sheetId="2" r:id="rId2"/>
     <sheet name="Wyliczenia skalowania sigma" sheetId="3" r:id="rId3"/>
-    <sheet name="Selekcja losowa z powtórzeniami" sheetId="4" r:id="rId4"/>
-    <sheet name="Selekcja deterministyczna" sheetId="5" r:id="rId5"/>
+    <sheet name="Bez skalowania | Losowa z powt." sheetId="4" r:id="rId4"/>
+    <sheet name="Liniowe | Losowa z powt." sheetId="6" r:id="rId5"/>
+    <sheet name="Sigma | Losowa z powt." sheetId="7" r:id="rId6"/>
+    <sheet name="Bez skalowania | Determistyczn" sheetId="5" r:id="rId7"/>
+    <sheet name="Liniowe | Deterministyczna" sheetId="8" r:id="rId8"/>
+    <sheet name="Sigma | Deterministyczna" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t>x_1</t>
   </si>
@@ -104,9 +108,6 @@
     <t>Liczba osobników</t>
   </si>
   <si>
-    <t>Całkowita oczekiwana liczba kopii</t>
-  </si>
-  <si>
     <t>Reszta z liczby kopii</t>
   </si>
   <si>
@@ -115,13 +116,49 @@
   <si>
     <t>Liczba możliwych kopii osobników</t>
   </si>
+  <si>
+    <t>Część całkowita z oczekiwanej liczby kopii</t>
+  </si>
+  <si>
+    <t>Minimalna reszta uprawniająca do kopii</t>
+  </si>
+  <si>
+    <t>Liczba kopii z reszt</t>
+  </si>
+  <si>
+    <t>Czy ilość kopii z reszt jest poprawna?</t>
+  </si>
+  <si>
+    <t>Dodatkowa kopia wg reszty</t>
+  </si>
+  <si>
+    <t>Przydzielonych kopii</t>
+  </si>
+  <si>
+    <t>Początek sekcji w kole</t>
+  </si>
+  <si>
+    <t>Koniec sekcji w kole</t>
+  </si>
+  <si>
+    <t>Wyniki losowania</t>
+  </si>
+  <si>
+    <t>Liczba kopii przydzielona wg losowania</t>
+  </si>
+  <si>
+    <t>Rozdzielonych miejsc w następnym pokoleniu</t>
+  </si>
+  <si>
+    <t>Razem otrzymanych kopii</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -157,13 +194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +253,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -288,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,12 +502,12 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2237,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2415,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,22 +2436,2767 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4">
+        <f>SUM(Sprawozdanie!H$2:H$41)</f>
+        <v>55018.562543299209</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUM(Sprawozdanie!I$2:I$41)</f>
+        <v>54777.202038192983</v>
+      </c>
+      <c r="D2">
+        <f>Sprawozdanie!H2/$B$1</f>
+        <v>2.742200123877038E-2</v>
+      </c>
+      <c r="E2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$E2+$D2</f>
+        <v>2.742200123877038E-2</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF($I$2:$I$41,CONCATENATE("&lt;=",$F2))-COUNTIF($I$2:$I$41,CONCATENATE("&lt;",$E2))</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.69064999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Sprawozdanie!J$2:J$41)</f>
+        <v>35202.784560994885</v>
+      </c>
+      <c r="D3">
+        <f>Sprawozdanie!H3/$B$1</f>
+        <v>2.8979503476545418E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="0">F2</f>
+        <v>2.742200123877038E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="1">$E3+$D3</f>
+        <v>5.6401504715315798E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="2">COUNTIF($I$2:$I$41,CONCATENATE("&lt;=",$F3))-COUNTIF($I$2:$I$41,CONCATENATE("&lt;",$E3))</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.65965600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f>Sprawozdanie!H4/$B$1</f>
+        <v>3.5584859585419751E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.6401504715315798E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>9.1986364300735549E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0.77868300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>Sprawozdanie!H5/$B$1</f>
+        <v>2.0194364700389992E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>9.1986364300735549E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.11218072900112554</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.32263199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <f>SUM(G2:G41)</f>
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <f>Sprawozdanie!H6/$B$1</f>
+        <v>2.3192005061632558E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.11218072900112554</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.1353727340627581</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.23094500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>Sprawozdanie!H7/$B$1</f>
+        <v>2.4209067932585902E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.1353727340627581</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.159581801995344</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.49475799999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>Sprawozdanie!H8/$B$1</f>
+        <v>7.4640665953287652E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.159581801995344</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.23422246794863166</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0.986792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>Sprawozdanie!H9/$B$1</f>
+        <v>3.749364930854019E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.23422246794863166</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.27171611725717187</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0.77067300000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>Sprawozdanie!H10/$B$1</f>
+        <v>2.316524436392314E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.27171611725717187</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.29488136162109502</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.225554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>Sprawozdanie!H11/$B$1</f>
+        <v>2.8151401023998469E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.29488136162109502</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.32303276264509351</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>0.64891699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>Sprawozdanie!H12/$B$1</f>
+        <v>1.1973666715127722E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.32303276264509351</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.33500642936022124</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2.2242999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>Sprawozdanie!H13/$B$1</f>
+        <v>2.1737571930829765E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.33500642936022124</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.35674400129105099</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.63744900000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>Sprawozdanie!H14/$B$1</f>
+        <v>1.9601901157109827E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.35674400129105099</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.3763459024481608</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.59906599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>Sprawozdanie!H15/$B$1</f>
+        <v>2.2282020797302241E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.3763459024481608</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.39862792324546303</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.63217800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>Sprawozdanie!H16/$B$1</f>
+        <v>3.9890710891030474E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.39862792324546303</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.4385186341364935</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.83348699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>Sprawozdanie!H17/$B$1</f>
+        <v>4.7172886866224166E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.4385186341364935</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.48569152100271767</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.88424899999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>Sprawozdanie!H18/$B$1</f>
+        <v>1.424957590351396E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.48569152100271767</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.49994109690623162</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.421047</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>Sprawozdanie!H19/$B$1</f>
+        <v>1.8165385193992616E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.49994109690623162</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.51810648210022425</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.31218499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>Sprawozdanie!H20/$B$1</f>
+        <v>1.6125862675155044E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.51810648210022425</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.53423234477537929</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.182753</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>Sprawozdanie!H21/$B$1</f>
+        <v>9.3782032409928436E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.53423234477537929</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.5436105480163721</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2.8886999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>Sprawozdanie!H22/$B$1</f>
+        <v>4.7456217085985387E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.5436105480163721</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.59106676510235745</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.91512099999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>Sprawozdanie!H23/$B$1</f>
+        <v>1.8174851260402702E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.59106676510235745</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.6092416163627602</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0.61360000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>Sprawozdanie!H24/$B$1</f>
+        <v>1.4922116170641583E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.6092416163627602</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.62416373253340174</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0.37354599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>Sprawozdanie!H25/$B$1</f>
+        <v>2.8458537270466062E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.62416373253340174</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.65262226980386784</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0.80867800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>Sprawozdanie!H26/$B$1</f>
+        <v>1.4465613043745459E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.65262226980386784</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.66708788284761333</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0.23825199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>Sprawozdanie!H27/$B$1</f>
+        <v>9.3906333377431345E-3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.66708788284761333</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.67647851618535648</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>8.7470999999999993E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>Sprawozdanie!H28/$B$1</f>
+        <v>1.4920635426385782E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.67647851618535648</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.69139915161174226</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0.25942799999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>Sprawozdanie!H29/$B$1</f>
+        <v>7.7094600857544708E-3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.69139915161174226</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.69910861169749672</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>5.7764999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>Sprawozdanie!H30/$B$1</f>
+        <v>1.5469292178686343E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.69910861169749672</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.71457790387618303</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.521644</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>Sprawozdanie!H31/$B$1</f>
+        <v>1.4521171220146057E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.71457790387618303</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.7290990750963291</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.27906399999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>Sprawozdanie!H32/$B$1</f>
+        <v>4.727584254469594E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.7290990750963291</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.77637491764102506</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0.89937</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>Sprawozdanie!H33/$B$1</f>
+        <v>4.9394811602338419E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.77637491764102506</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.82576972924336345</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0.92201299999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>Sprawozdanie!H34/$B$1</f>
+        <v>9.4925691059460967E-3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.82576972924336345</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.83526229834930954</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0.302622</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>Sprawozdanie!H35/$B$1</f>
+        <v>1.4578055280776896E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.83526229834930954</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.84984035363008648</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.25750600000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>Sprawozdanie!H36/$B$1</f>
+        <v>1.2500117741647625E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.84984035363008648</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.86234047137173409</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0.17460400000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>Sprawozdanie!H37/$B$1</f>
+        <v>6.8214556764529491E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.86234047137173409</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.93055502813626356</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>0.99530200000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>Sprawozdanie!H38/$B$1</f>
+        <v>7.6081546734477236E-3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.93055502813626356</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.93816318280971134</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>7.0627999999999996E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>Sprawozdanie!H39/$B$1</f>
+        <v>2.6529659213050918E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.93816318280971134</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.96469284202276229</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.85140800000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>Sprawozdanie!H40/$B$1</f>
+        <v>3.3901120770952434E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.96469284202276229</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0.99859396279371471</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0.89353400000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>Sprawozdanie!H41/$B$1</f>
+        <v>1.4060372062852406E-3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.99859396279371471</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.609796</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4">
+        <f>SUM(Sprawozdanie!H$2:H$41)</f>
+        <v>55018.562543299209</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUM(Sprawozdanie!I$2:I$41)</f>
+        <v>54777.202038192983</v>
+      </c>
+      <c r="D2">
+        <f>Sprawozdanie!I2/$B$2</f>
+        <v>2.584893905162345E-2</v>
+      </c>
+      <c r="E2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$E2+$D2</f>
+        <v>2.584893905162345E-2</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF($I$2:$I$41,CONCATENATE("&lt;=",$F2))-COUNTIF($I$2:$I$41,CONCATENATE("&lt;",$E2))</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.69064999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Sprawozdanie!J$2:J$41)</f>
+        <v>35202.784560994885</v>
+      </c>
+      <c r="D3">
+        <f>Sprawozdanie!I3/$B$2</f>
+        <v>2.6394861345746388E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="0">F2</f>
+        <v>2.584893905162345E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="1">$E3+$D3</f>
+        <v>5.2243800397369838E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="2">COUNTIF($I$2:$I$41,CONCATENATE("&lt;=",$F3))-COUNTIF($I$2:$I$41,CONCATENATE("&lt;",$E3))</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.65965600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f>Sprawozdanie!I4/$B$2</f>
+        <v>2.8710113981021589E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.2243800397369838E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>8.0953914378391431E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0.77868300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>Sprawozdanie!I5/$B$2</f>
+        <v>2.3315570030108541E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8.0953914378391431E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.10426948440849998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.32263199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <f>SUM(G2:G41)</f>
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <f>Sprawozdanie!I6/$B$2</f>
+        <v>2.4366277158017938E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.10426948440849998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.1286357615665179</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.23094500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>Sprawozdanie!I7/$B$2</f>
+        <v>2.4722769291583853E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.1286357615665179</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.15335853085810175</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.49475799999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>Sprawozdanie!I8/$B$2</f>
+        <v>4.2399619455907138E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.15335853085810175</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.19575815031400889</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0.986792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>Sprawozdanie!I9/$B$2</f>
+        <v>2.9379166544395638E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.19575815031400889</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.22513731685840455</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.77067300000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>Sprawozdanie!I10/$B$2</f>
+        <v>2.4356897228325684E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.22513731685840455</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.24949421408673023</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0.225554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>Sprawozdanie!I11/$B$2</f>
+        <v>2.6104601993497185E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.24949421408673023</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.2755988160802274</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.64891699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>Sprawozdanie!I12/$B$2</f>
+        <v>2.0434121647846602E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.2755988160802274</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.29603293772807399</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2.2242999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>Sprawozdanie!I13/$B$2</f>
+        <v>2.3856481761158316E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.29603293772807399</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.31988941948923233</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.63744900000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>Sprawozdanie!I14/$B$2</f>
+        <v>2.3107904802485008E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.31988941948923233</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.34299732429171736</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.59906599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>Sprawozdanie!I15/$B$2</f>
+        <v>2.4047317297062193E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.34299732429171736</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.36704464158877959</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.63217800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>Sprawozdanie!I16/$B$2</f>
+        <v>3.0219363962112656E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.36704464158877959</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.39726400555089225</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.83348699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>Sprawozdanie!I17/$B$2</f>
+        <v>3.2771849678129288E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.39726400555089225</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.43003585522902155</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.88424899999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>Sprawozdanie!I18/$B$2</f>
+        <v>2.12318537699617E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.43003585522902155</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.45126770899898327</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.421047</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>Sprawozdanie!I19/$B$2</f>
+        <v>2.2604389577203867E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.45126770899898327</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.47387209857618712</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.31218499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>Sprawozdanie!I20/$B$2</f>
+        <v>2.1889513678219744E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.47387209857618712</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.49576161225440685</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.182753</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>Sprawozdanie!I21/$B$2</f>
+        <v>1.9524382104784275E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.49576161225440685</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.51528599435919109</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2.8886999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>Sprawozdanie!I22/$B$2</f>
+        <v>3.2871160150894557E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.51528599435919109</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.54815715451008562</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0.91512099999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>Sprawozdanie!I23/$B$2</f>
+        <v>2.2607707541419633E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.54815715451008562</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.57076486205150523</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.61360000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>Sprawozdanie!I24/$B$2</f>
+        <v>2.1467586802387303E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.57076486205150523</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.59223244885389248</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.37354599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>Sprawozdanie!I25/$B$2</f>
+        <v>2.6212256750076813E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.59223244885389248</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.61844470560396925</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0.80867800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>Sprawozdanie!I26/$B$2</f>
+        <v>2.1307577251026756E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.61844470560396925</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.63975228285499597</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0.23825199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>Sprawozdanie!I27/$B$2</f>
+        <v>1.9528738995432327E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.63975228285499597</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.65928102185042825</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>8.7470999999999993E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>Sprawozdanie!I28/$B$2</f>
+        <v>2.1467067784641112E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.65928102185042825</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.68074808963506939</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0.25942799999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>Sprawozdanie!I29/$B$2</f>
+        <v>1.8939468600639907E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.68074808963506939</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.69968755823570927</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>5.7764999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>Sprawozdanie!I30/$B$2</f>
+        <v>2.1659378232509133E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.69968755823570927</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.72134693646821846</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.521644</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>Sprawozdanie!I31/$B$2</f>
+        <v>2.132705102537024E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.72134693646821846</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.74267398749358871</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.27906399999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>Sprawozdanie!I32/$B$2</f>
+        <v>3.2807936817409795E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.74267398749358871</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.77548192431099849</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0.89937</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>Sprawozdanie!I33/$B$2</f>
+        <v>3.3550659634152741E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.77548192431099849</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.80903258394515121</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0.92201299999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>Sprawozdanie!I34/$B$2</f>
+        <v>1.9564468644533855E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.80903258394515121</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.82859705258968508</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.302622</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>Sprawozdanie!I35/$B$2</f>
+        <v>2.134698953725513E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.82859705258968508</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.84994404212694019</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0.25750600000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>Sprawozdanie!I36/$B$2</f>
+        <v>2.0618648735622531E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.84994404212694019</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.87056269086256277</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0.17460400000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>Sprawozdanie!I37/$B$2</f>
+        <v>4.0147194910037515E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.87056269086256277</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.91070988577260026</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>0.99530200000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>Sprawozdanie!I38/$B$2</f>
+        <v>1.8903959898467781E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.91070988577260026</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.92961384567106808</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>7.0627999999999996E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>Sprawozdanie!I39/$B$2</f>
+        <v>2.5536162996470553E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.92961384567106808</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.95515000866753863</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.85140800000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>Sprawozdanie!I40/$B$2</f>
+        <v>2.8119944327325973E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.95515000866753863</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0.98326995299486464</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.89353400000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>Sprawozdanie!I41/$B$2</f>
+        <v>1.6730047005135317E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.98326995299486464</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0.609796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4">
+        <f>SUM(Sprawozdanie!H$2:H$41)</f>
+        <v>55018.562543299209</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUM(Sprawozdanie!I$2:I$41)</f>
+        <v>54777.202038192983</v>
+      </c>
+      <c r="D2">
+        <f>Sprawozdanie!K2/$B$3</f>
+        <v>2.8785354718299318E-2</v>
+      </c>
+      <c r="E2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$E2+$D2</f>
+        <v>2.8785354718299318E-2</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF($I$2:$I$41,CONCATENATE("&lt;=",$F2))-COUNTIF($I$2:$I$41,CONCATENATE("&lt;",$E2))</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.69064999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Sprawozdanie!J$2:J$41)</f>
+        <v>35202.784560994885</v>
+      </c>
+      <c r="D3">
+        <f>Sprawozdanie!K3/$B$3</f>
+        <v>3.1219580741865132E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="0">F2</f>
+        <v>2.8785354718299318E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="1">$E3+$D3</f>
+        <v>6.0004935460164451E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="2">COUNTIF($I$2:$I$41,CONCATENATE("&lt;=",$F3))-COUNTIF($I$2:$I$41,CONCATENATE("&lt;",$E3))</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.65965600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f>Sprawozdanie!K4/$B$3</f>
+        <v>4.1543116301024752E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>6.0004935460164451E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.1015480517611892</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0.77868300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>Sprawozdanie!K5/$B$3</f>
+        <v>1.7489254768077722E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.1015480517611892</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.11903730652926692</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.32263199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <f>SUM(G2:G41)</f>
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <f>Sprawozdanie!K6/$B$3</f>
+        <v>2.2174278005702003E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.11903730652926692</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.14121158453496893</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.23094500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>Sprawozdanie!K7/$B$3</f>
+        <v>2.3763849338590687E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.14121158453496893</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.16497543387355962</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.49475799999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>Sprawozdanie!K8/$B$3</f>
+        <v>0.10258358091558861</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.16497543387355962</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.26755901478914823</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>0.986792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>Sprawozdanie!K9/$B$3</f>
+        <v>4.4526370838220398E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.26755901478914823</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.31208538562736865</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0.77067300000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>Sprawozdanie!K10/$B$3</f>
+        <v>2.2132453612007323E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.31208538562736865</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.33421783923937598</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0.225554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>Sprawozdanie!K11/$B$3</f>
+        <v>2.9925336347681721E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.33421783923937598</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.36414317558705772</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.64891699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>Sprawozdanie!K12/$B$3</f>
+        <v>4.6410953996603192E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.36414317558705772</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.36878427098671807</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2.2242999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>Sprawozdanie!K13/$B$3</f>
+        <v>1.9901139071664832E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.36878427098671807</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.38868541005838292</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.63744900000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>Sprawozdanie!K14/$B$3</f>
+        <v>1.6563291299076986E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.38868541005838292</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.40524870135745988</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.59906599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>Sprawozdanie!K15/$B$3</f>
+        <v>2.0752060224215774E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.40524870135745988</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.42600076158167566</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.63217800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>Sprawozdanie!K16/$B$3</f>
+        <v>4.8272747275228428E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.42600076158167566</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.47427350885690411</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.83348699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>Sprawozdanie!K17/$B$3</f>
+        <v>5.9654087113510293E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.47427350885690411</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.53392759597041439</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0.88424899999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>Sprawozdanie!K18/$B$3</f>
+        <v>8.1981223106178062E-3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.53392759597041439</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.54212571828103218</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.421047</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>Sprawozdanie!K19/$B$3</f>
+        <v>1.4318155172863159E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.54212571828103218</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.55644387345389534</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.31218499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>Sprawozdanie!K20/$B$3</f>
+        <v>1.1130577864406035E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.55644387345389534</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.56757445131830142</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.182753</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>Sprawozdanie!K21/$B$3</f>
+        <v>5.8463591040840536E-4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.56757445131830142</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.56815908722870978</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2.8886999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>Sprawozdanie!K22/$B$3</f>
+        <v>6.009690496473255E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.56815908722870978</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.6282559921934423</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>0.91512099999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>Sprawozdanie!K23/$B$3</f>
+        <v>1.4332949723161301E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.6282559921934423</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.64258894191660365</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0.61360000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>Sprawozdanie!K24/$B$3</f>
+        <v>9.2492379882919851E-3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.64258894191660365</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.65183817990489568</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.37354599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>Sprawozdanie!K25/$B$3</f>
+        <v>3.0405360726330301E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.65183817990489568</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.68224354063122594</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.80867800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>Sprawozdanie!K26/$B$3</f>
+        <v>8.5357675582801787E-3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.68224354063122594</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.69077930818950617</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0.23825199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>Sprawozdanie!K27/$B$3</f>
+        <v>6.0406295471764635E-4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.69077930818950617</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.69138337114422377</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>8.7470999999999993E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>Sprawozdanie!K28/$B$3</f>
+        <v>9.2469237276031138E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.69138337114422377</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.70063029487182693</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.25942799999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>Sprawozdanie!K29/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.70063029487182693</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.70063029487182693</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>5.7764999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>Sprawozdanie!K30/$B$3</f>
+        <v>1.0104421400520118E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.70063029487182693</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.71073471627234708</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.521644</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>Sprawozdanie!K31/$B$3</f>
+        <v>8.6225996382195275E-3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.71073471627234708</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.71935731591056662</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.27906399999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>Sprawozdanie!K32/$B$3</f>
+        <v>5.9814996925214886E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.71935731591056662</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.77917231283578148</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0.89937</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>Sprawozdanie!K33/$B$3</f>
+        <v>6.312674152380536E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.77917231283578148</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.84229905435958685</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0.92201299999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>Sprawozdanie!K34/$B$3</f>
+        <v>7.6337874488068068E-4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.84229905435958685</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.84306243310446749</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.302622</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>Sprawozdanie!K35/$B$3</f>
+        <v>8.7115039475394868E-3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.84306243310446749</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.85177393705200699</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0.25750600000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>Sprawozdanie!K36/$B$3</f>
+        <v>5.4638876614026598E-3</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.85177393705200699</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.8572378247134097</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.17460400000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>Sprawozdanie!K37/$B$3</f>
+        <v>9.2540191032633057E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.8572378247134097</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.9497780157460427</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>0.99530200000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>Sprawozdanie!K38/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.9497780157460427</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.9497780157460427</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>7.0627999999999996E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>Sprawozdanie!K39/$B$3</f>
+        <v>2.7390710056965945E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.9497780157460427</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.97716872580300862</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.85140800000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>Sprawozdanie!K40/$B$3</f>
+        <v>3.8911594663586062E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.97716872580300862</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1.0160803204665947</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0.89353400000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>Sprawozdanie!K41/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1.0160803204665947</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1.0160803204665947</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.609796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,9 +5206,10 @@
     <col min="4" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2441,13 +5224,19 @@
         <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +5260,16 @@
         <f>E2-F2</f>
         <v>9.6880049550815084E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>IF(G2&gt;=$B$11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>$F2+$H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2496,8 +5293,16 @@
         <f t="shared" ref="G3:G41" si="2">E3-F3</f>
         <v>0.15918013906181683</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H41" si="3">IF(G3&gt;=$B$11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I41" si="4">$F3+$H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2520,8 +5325,16 @@
         <f t="shared" si="2"/>
         <v>0.42339438341678992</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5">
         <f>Sprawozdanie!H5/$B$1</f>
         <v>2.0194364700389992E-2</v>
@@ -2538,10 +5351,18 @@
         <f t="shared" si="2"/>
         <v>0.80777458801559965</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <f>SUM(F2:F41)</f>
@@ -2563,10 +5384,18 @@
         <f t="shared" si="2"/>
         <v>0.92768020246530236</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <f>B4-B6</f>
@@ -2588,8 +5417,16 @@
         <f t="shared" si="2"/>
         <v>0.96836271730343604</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <f>Sprawozdanie!H8/$B$1</f>
         <v>7.4640665953287652E-2</v>
@@ -2606,8 +5443,23 @@
         <f t="shared" si="2"/>
         <v>0.98562663813150619</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <f>$B$6+$B$13</f>
+        <v>40</v>
+      </c>
       <c r="D9">
         <f>Sprawozdanie!H9/$B$1</f>
         <v>3.749364930854019E-2</v>
@@ -2624,8 +5476,16 @@
         <f t="shared" si="2"/>
         <v>0.49974597234160756</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>Sprawozdanie!H10/$B$1</f>
         <v>2.316524436392314E-2</v>
@@ -2642,8 +5502,23 @@
         <f t="shared" si="2"/>
         <v>0.92660977455692561</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <f>LARGE(G2:G41,B7)</f>
+        <v>0.57862452174981838</v>
+      </c>
       <c r="D11">
         <f>Sprawozdanie!H11/$B$1</f>
         <v>2.8151401023998469E-2</v>
@@ -2660,8 +5535,16 @@
         <f t="shared" si="2"/>
         <v>0.12605604095993872</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>Sprawozdanie!H12/$B$1</f>
         <v>1.1973666715127722E-2</v>
@@ -2678,8 +5561,23 @@
         <f t="shared" si="2"/>
         <v>0.47894666860510887</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <f>SUM(H2:H41)</f>
+        <v>23</v>
+      </c>
       <c r="D13">
         <f>Sprawozdanie!H13/$B$1</f>
         <v>2.1737571930829765E-2</v>
@@ -2696,8 +5594,23 @@
         <f t="shared" si="2"/>
         <v>0.86950287723319053</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF($B$13=$B$7,"Tak","Nie")</f>
+        <v>Tak</v>
+      </c>
       <c r="D14">
         <f>Sprawozdanie!H14/$B$1</f>
         <v>1.9601901157109827E-2</v>
@@ -2714,8 +5627,16 @@
         <f t="shared" si="2"/>
         <v>0.78407604628439309</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15">
         <f>Sprawozdanie!H15/$B$1</f>
         <v>2.2282020797302241E-2</v>
@@ -2732,8 +5653,16 @@
         <f t="shared" si="2"/>
         <v>0.89128083189208962</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16">
         <f>Sprawozdanie!H16/$B$1</f>
         <v>3.9890710891030474E-2</v>
@@ -2750,8 +5679,16 @@
         <f t="shared" si="2"/>
         <v>0.59562843564121892</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17">
         <f>Sprawozdanie!H17/$B$1</f>
         <v>4.7172886866224166E-2</v>
@@ -2768,8 +5705,16 @@
         <f t="shared" si="2"/>
         <v>0.8869154746489667</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18">
         <f>Sprawozdanie!H18/$B$1</f>
         <v>1.424957590351396E-2</v>
@@ -2786,8 +5731,16 @@
         <f t="shared" si="2"/>
         <v>0.56998303614055845</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19">
         <f>Sprawozdanie!H19/$B$1</f>
         <v>1.8165385193992616E-2</v>
@@ -2804,8 +5757,16 @@
         <f t="shared" si="2"/>
         <v>0.72661540775970468</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20">
         <f>Sprawozdanie!H20/$B$1</f>
         <v>1.6125862675155044E-2</v>
@@ -2822,8 +5783,16 @@
         <f t="shared" si="2"/>
         <v>0.6450345070062018</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21">
         <f>Sprawozdanie!H21/$B$1</f>
         <v>9.3782032409928436E-3</v>
@@ -2840,8 +5809,16 @@
         <f t="shared" si="2"/>
         <v>0.37512812963971376</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22">
         <f>Sprawozdanie!H22/$B$1</f>
         <v>4.7456217085985387E-2</v>
@@ -2858,8 +5835,16 @@
         <f t="shared" si="2"/>
         <v>0.89824868343941544</v>
       </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23">
         <f>Sprawozdanie!H23/$B$1</f>
         <v>1.8174851260402702E-2</v>
@@ -2876,8 +5861,16 @@
         <f t="shared" si="2"/>
         <v>0.7269940504161081</v>
       </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24">
         <f>Sprawozdanie!H24/$B$1</f>
         <v>1.4922116170641583E-2</v>
@@ -2894,8 +5887,16 @@
         <f t="shared" si="2"/>
         <v>0.59688464682566333</v>
       </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>Sprawozdanie!H25/$B$1</f>
         <v>2.8458537270466062E-2</v>
@@ -2912,8 +5913,16 @@
         <f t="shared" si="2"/>
         <v>0.13834149081864244</v>
       </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26">
         <f>Sprawozdanie!H26/$B$1</f>
         <v>1.4465613043745459E-2</v>
@@ -2930,8 +5939,16 @@
         <f t="shared" si="2"/>
         <v>0.57862452174981838</v>
       </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>Sprawozdanie!H27/$B$1</f>
         <v>9.3906333377431345E-3</v>
@@ -2948,8 +5965,16 @@
         <f t="shared" si="2"/>
         <v>0.37562533350972538</v>
       </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>Sprawozdanie!H28/$B$1</f>
         <v>1.4920635426385782E-2</v>
@@ -2966,8 +5991,16 @@
         <f t="shared" si="2"/>
         <v>0.59682541705543124</v>
       </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D29">
         <f>Sprawozdanie!H29/$B$1</f>
         <v>7.7094600857544708E-3</v>
@@ -2984,8 +6017,16 @@
         <f t="shared" si="2"/>
         <v>0.30837840343017886</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30">
         <f>Sprawozdanie!H30/$B$1</f>
         <v>1.5469292178686343E-2</v>
@@ -3002,8 +6043,16 @@
         <f t="shared" si="2"/>
         <v>0.61877168714745368</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D31">
         <f>Sprawozdanie!H31/$B$1</f>
         <v>1.4521171220146057E-2</v>
@@ -3020,8 +6069,16 @@
         <f t="shared" si="2"/>
         <v>0.58084684880584225</v>
       </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32">
         <f>Sprawozdanie!H32/$B$1</f>
         <v>4.727584254469594E-2</v>
@@ -3038,8 +6095,16 @@
         <f t="shared" si="2"/>
         <v>0.89103370178783758</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33">
         <f>Sprawozdanie!H33/$B$1</f>
         <v>4.9394811602338419E-2</v>
@@ -3056,8 +6121,16 @@
         <f t="shared" si="2"/>
         <v>0.9757924640935367</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34">
         <f>Sprawozdanie!H34/$B$1</f>
         <v>9.4925691059460967E-3</v>
@@ -3074,8 +6147,16 @@
         <f t="shared" si="2"/>
         <v>0.37970276423784388</v>
       </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35">
         <f>Sprawozdanie!H35/$B$1</f>
         <v>1.4578055280776896E-2</v>
@@ -3092,8 +6173,16 @@
         <f t="shared" si="2"/>
         <v>0.58312221123107588</v>
       </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36">
         <f>Sprawozdanie!H36/$B$1</f>
         <v>1.2500117741647625E-2</v>
@@ -3110,8 +6199,16 @@
         <f t="shared" si="2"/>
         <v>0.50000470966590504</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37">
         <f>Sprawozdanie!H37/$B$1</f>
         <v>6.8214556764529491E-2</v>
@@ -3128,8 +6225,16 @@
         <f t="shared" si="2"/>
         <v>0.72858227058117953</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38">
         <f>Sprawozdanie!H38/$B$1</f>
         <v>7.6081546734477236E-3</v>
@@ -3146,8 +6251,16 @@
         <f t="shared" si="2"/>
         <v>0.30432618693790892</v>
       </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39">
         <f>Sprawozdanie!H39/$B$1</f>
         <v>2.6529659213050918E-2</v>
@@ -3164,8 +6277,16 @@
         <f t="shared" si="2"/>
         <v>6.1186368522036627E-2</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40">
         <f>Sprawozdanie!H40/$B$1</f>
         <v>3.3901120770952434E-2</v>
@@ -3182,8 +6303,16 @@
         <f t="shared" si="2"/>
         <v>0.35604483083809724</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41">
         <f>Sprawozdanie!H41/$B$1</f>
         <v>1.4060372062852406E-3</v>
@@ -3199,6 +6328,2318 @@
       <c r="G41">
         <f t="shared" si="2"/>
         <v>5.6241488251409621E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4">
+        <f>SUM(Sprawozdanie!H$2:H$41)</f>
+        <v>55018.562543299209</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUM(Sprawozdanie!I$2:I$41)</f>
+        <v>54777.202038192983</v>
+      </c>
+      <c r="D2">
+        <f>Sprawozdanie!I2/$B$2</f>
+        <v>2.584893905162345E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2*$B$4</f>
+        <v>1.0339575620649379</v>
+      </c>
+      <c r="F2">
+        <f>FLOOR(E2, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>3.3957562064937941E-2</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2&gt;=$B$11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>$F2+$H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Sprawozdanie!J$2:J$41)</f>
+        <v>35202.784560994885</v>
+      </c>
+      <c r="D3">
+        <f>Sprawozdanie!I3/$B$2</f>
+        <v>2.6394861345746388E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="0">D3*$B$4</f>
+        <v>1.0557944538298556</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="1">FLOOR(E3, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="2">E3-F3</f>
+        <v>5.5794453829855595E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H41" si="3">IF(G3&gt;=$B$11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I41" si="4">$F3+$H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f>Sprawozdanie!I4/$B$2</f>
+        <v>2.8710113981021589E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.1484045592408636</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.1484045592408636</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>Sprawozdanie!I5/$B$2</f>
+        <v>2.3315570030108541E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.9326228012043416</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.9326228012043416</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <f>SUM(F2:F41)</f>
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>Sprawozdanie!I6/$B$2</f>
+        <v>2.4366277158017938E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.97465108632071751</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.97465108632071751</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f>B4-B6</f>
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <f>Sprawozdanie!I7/$B$2</f>
+        <v>2.4722769291583853E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.98891077166335406</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.98891077166335406</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>Sprawozdanie!I8/$B$2</f>
+        <v>4.2399619455907138E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.6959847782362856</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.69598477823628557</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <f>$B$6+$B$13</f>
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f>Sprawozdanie!I9/$B$2</f>
+        <v>2.9379166544395638E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.1751666617758256</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.17516666177582563</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>Sprawozdanie!I10/$B$2</f>
+        <v>2.4356897228325684E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.97427588913302732</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.97427588913302732</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <f>LARGE(G2:G41,B7)</f>
+        <v>0.69598477823628557</v>
+      </c>
+      <c r="D11">
+        <f>Sprawozdanie!I11/$B$2</f>
+        <v>2.6104601993497185E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.0441840797398874</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>4.4184079739887361E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>Sprawozdanie!I12/$B$2</f>
+        <v>2.0434121647846602E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.81736486591386415</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.81736486591386415</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <f>SUM(H2:H41)</f>
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <f>Sprawozdanie!I13/$B$2</f>
+        <v>2.3856481761158316E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.95425927044633263</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.95425927044633263</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF($B$13=$B$7,"Tak","Nie")</f>
+        <v>Tak</v>
+      </c>
+      <c r="D14">
+        <f>Sprawozdanie!I14/$B$2</f>
+        <v>2.3107904802485008E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.9243161920994003</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.9243161920994003</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>Sprawozdanie!I15/$B$2</f>
+        <v>2.4047317297062193E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.96189269188248772</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.96189269188248772</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>Sprawozdanie!I16/$B$2</f>
+        <v>3.0219363962112656E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.2087745584845062</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.20877455848450621</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>Sprawozdanie!I17/$B$2</f>
+        <v>3.2771849678129288E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.3108739871251716</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.31087398712517156</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>Sprawozdanie!I18/$B$2</f>
+        <v>2.12318537699617E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.84927415079846802</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.84927415079846802</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>Sprawozdanie!I19/$B$2</f>
+        <v>2.2604389577203867E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.90417558308815471</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.90417558308815471</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>Sprawozdanie!I20/$B$2</f>
+        <v>2.1889513678219744E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.87558054712878974</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.87558054712878974</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>Sprawozdanie!I21/$B$2</f>
+        <v>1.9524382104784275E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.78097528419137097</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.78097528419137097</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>Sprawozdanie!I22/$B$2</f>
+        <v>3.2871160150894557E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.3148464060357823</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.31484640603578229</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>Sprawozdanie!I23/$B$2</f>
+        <v>2.2607707541419633E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.90430830165678533</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.90430830165678533</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>Sprawozdanie!I24/$B$2</f>
+        <v>2.1467586802387303E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.85870347209549214</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.85870347209549214</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>Sprawozdanie!I25/$B$2</f>
+        <v>2.6212256750076813E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.0484902700030725</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>4.8490270003072489E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>Sprawozdanie!I26/$B$2</f>
+        <v>2.1307577251026756E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.85230309004107019</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0.85230309004107019</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>Sprawozdanie!I27/$B$2</f>
+        <v>1.9528738995432327E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.78114955981729306</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0.78114955981729306</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>Sprawozdanie!I28/$B$2</f>
+        <v>2.1467067784641112E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.85868271138564445</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0.85868271138564445</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>Sprawozdanie!I29/$B$2</f>
+        <v>1.8939468600639907E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.75757874402559633</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0.75757874402559633</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>Sprawozdanie!I30/$B$2</f>
+        <v>2.1659378232509133E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.86637512930036531</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0.86637512930036531</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>Sprawozdanie!I31/$B$2</f>
+        <v>2.132705102537024E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.85308204101480967</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0.85308204101480967</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>Sprawozdanie!I32/$B$2</f>
+        <v>3.2807936817409795E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.3123174726963918</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0.31231747269639176</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>Sprawozdanie!I33/$B$2</f>
+        <v>3.3550659634152741E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.3420263853661096</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0.34202638536610963</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>Sprawozdanie!I34/$B$2</f>
+        <v>1.9564468644533855E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.78257874578135422</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0.78257874578135422</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>Sprawozdanie!I35/$B$2</f>
+        <v>2.134698953725513E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.85387958149020515</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.85387958149020515</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>Sprawozdanie!I36/$B$2</f>
+        <v>2.0618648735622531E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.8247459494249012</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.8247459494249012</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>Sprawozdanie!I37/$B$2</f>
+        <v>4.0147194910037515E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.6058877964015006</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0.60588779640150059</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>Sprawozdanie!I38/$B$2</f>
+        <v>1.8903959898467781E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.75615839593871126</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0.75615839593871126</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>Sprawozdanie!I39/$B$2</f>
+        <v>2.5536162996470553E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.0214465198588221</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>2.1446519858822066E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>Sprawozdanie!I40/$B$2</f>
+        <v>2.8119944327325973E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.124797773093039</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0.12479777309303897</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>Sprawozdanie!I41/$B$2</f>
+        <v>1.6730047005135317E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.66920188020541271</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0.66920188020541271</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4">
+        <f>SUM(Sprawozdanie!H$2:H$41)</f>
+        <v>55018.562543299209</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUM(Sprawozdanie!I$2:I$41)</f>
+        <v>54777.202038192983</v>
+      </c>
+      <c r="D2">
+        <f>Sprawozdanie!K2/$B$3</f>
+        <v>2.8785354718299318E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2*$B$4</f>
+        <v>1.1514141887319727</v>
+      </c>
+      <c r="F2">
+        <f>FLOOR(E2, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>0.15141418873197265</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2&gt;=$B$11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>$F2+$H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Sprawozdanie!J$2:J$41)</f>
+        <v>35202.784560994885</v>
+      </c>
+      <c r="D3">
+        <f>Sprawozdanie!K3/$B$3</f>
+        <v>3.1219580741865132E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="0">D3*$B$4</f>
+        <v>1.2487832296746053</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="1">FLOOR(E3, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="2">E3-F3</f>
+        <v>0.24878322967460531</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H41" si="3">IF(G3&gt;=$B$11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I41" si="4">$F3+$H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f>Sprawozdanie!K4/$B$3</f>
+        <v>4.1543116301024752E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.6617246520409901</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.66172465204099007</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>Sprawozdanie!K5/$B$3</f>
+        <v>1.7489254768077722E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.69957019072310889</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.69957019072310889</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <f>SUM(F2:F41)</f>
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <f>Sprawozdanie!K6/$B$3</f>
+        <v>2.2174278005702003E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.88697112022808011</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.88697112022808011</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f>B4-B6</f>
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <f>Sprawozdanie!K7/$B$3</f>
+        <v>2.3763849338590687E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.95055397354362747</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.95055397354362747</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>Sprawozdanie!K8/$B$3</f>
+        <v>0.10258358091558861</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.1033432366235445</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.1033432366235445</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <f>$B$6+$B$13</f>
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f>Sprawozdanie!K9/$B$3</f>
+        <v>4.4526370838220398E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.7810548335288159</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.78105483352881588</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>Sprawozdanie!K10/$B$3</f>
+        <v>2.2132453612007323E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.88529814448029298</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.88529814448029298</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <f>LARGE(G2:G41,B7)</f>
+        <v>0.44522311457624142</v>
+      </c>
+      <c r="D11">
+        <f>Sprawozdanie!K11/$B$3</f>
+        <v>2.9925336347681721E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.1970134539072688</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.19701345390726877</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>Sprawozdanie!K12/$B$3</f>
+        <v>4.6410953996603192E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.18564381598641277</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.18564381598641277</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <f>SUM(H2:H41)</f>
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <f>Sprawozdanie!K13/$B$3</f>
+        <v>1.9901139071664832E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.79604556286659323</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.79604556286659323</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF($B$13=$B$7,"Tak","Nie")</f>
+        <v>Tak</v>
+      </c>
+      <c r="D14">
+        <f>Sprawozdanie!K14/$B$3</f>
+        <v>1.6563291299076986E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.6625316519630795</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.6625316519630795</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>Sprawozdanie!K15/$B$3</f>
+        <v>2.0752060224215774E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.83008240896863095</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.83008240896863095</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>Sprawozdanie!K16/$B$3</f>
+        <v>4.8272747275228428E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.9309098910091371</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.93090989100913712</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>Sprawozdanie!K17/$B$3</f>
+        <v>5.9654087113510293E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.3861634845404116</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.38616348454041161</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>Sprawozdanie!K18/$B$3</f>
+        <v>8.1981223106178062E-3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.32792489242471223</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.32792489242471223</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>Sprawozdanie!K19/$B$3</f>
+        <v>1.4318155172863159E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.57272620691452636</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.57272620691452636</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>Sprawozdanie!K20/$B$3</f>
+        <v>1.1130577864406035E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.44522311457624142</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.44522311457624142</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>Sprawozdanie!K21/$B$3</f>
+        <v>5.8463591040840536E-4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.3385436416336215E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>2.3385436416336215E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>Sprawozdanie!K22/$B$3</f>
+        <v>6.009690496473255E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.4038761985893018</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.40387619858930179</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>Sprawozdanie!K23/$B$3</f>
+        <v>1.4332949723161301E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.57331798892645203</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.57331798892645203</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>Sprawozdanie!K24/$B$3</f>
+        <v>9.2492379882919851E-3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.36996951953167939</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.36996951953167939</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>Sprawozdanie!K25/$B$3</f>
+        <v>3.0405360726330301E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.216214429053212</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0.21621442905321198</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>Sprawozdanie!K26/$B$3</f>
+        <v>8.5357675582801787E-3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.34143070233120715</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0.34143070233120715</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>Sprawozdanie!K27/$B$3</f>
+        <v>6.0406295471764635E-4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2.4162518188705854E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>2.4162518188705854E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>Sprawozdanie!K28/$B$3</f>
+        <v>9.2469237276031138E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.36987694910412455</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0.36987694910412455</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>Sprawozdanie!K29/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>Sprawozdanie!K30/$B$3</f>
+        <v>1.0104421400520118E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.40417685602080472</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0.40417685602080472</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>Sprawozdanie!K31/$B$3</f>
+        <v>8.6225996382195275E-3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.3449039855287811</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0.3449039855287811</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>Sprawozdanie!K32/$B$3</f>
+        <v>5.9814996925214886E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2.3925998770085952</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0.39259987700859522</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>Sprawozdanie!K33/$B$3</f>
+        <v>6.312674152380536E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2.5250696609522145</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0.52506966095221452</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>Sprawozdanie!K34/$B$3</f>
+        <v>7.6337874488068068E-4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>3.0535149795227229E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>3.0535149795227229E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>Sprawozdanie!K35/$B$3</f>
+        <v>8.7115039475394868E-3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.34846015790157947</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.34846015790157947</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>Sprawozdanie!K36/$B$3</f>
+        <v>5.4638876614026598E-3</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.21855550645610639</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.21855550645610639</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>Sprawozdanie!K37/$B$3</f>
+        <v>9.2540191032633057E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>3.7016076413053223</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0.70160764130532227</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>Sprawozdanie!K38/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>Sprawozdanie!K39/$B$3</f>
+        <v>2.7390710056965945E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.0956284022786378</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>9.5628402278637781E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>Sprawozdanie!K40/$B$3</f>
+        <v>3.8911594663586062E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.5564637865434425</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0.55646378654344253</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>Sprawozdanie!K41/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
